--- a/biology/Histoire de la zoologie et de la botanique/Christian_Luerssen/Christian_Luerssen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Christian_Luerssen/Christian_Luerssen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Luerssen est un botaniste allemand, né le 6 mai 1843 et mort le 28 juin 1916.
 Il enseigne à l’Institut botanique de Königsberg (aujourd’hui Kaliningrad). En 1917, une partie de son herbier est donné par Otto Bjurling au Muséum suédois d'histoire naturelle.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1894 : Beiträge zur Kenntnis der Flora West-und Ostpreussens. I-III. - Bibliotheca Botanica. 6 (28) : 1-58, pl. I-XXIII (Stuttgart).</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Biographie du Muséum suédois d'histoire naturelle</t>
         </is>
